--- a/_ConfigExcels/Datas/enemy_level.xlsx
+++ b/_ConfigExcels/Datas/enemy_level.xlsx
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E5:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,31 +546,143 @@
         <v>70</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>90</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
         <v>1002</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D17" s="2">
         <v>20</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E17" s="2">
         <v>50</v>
       </c>
     </row>

--- a/_ConfigExcels/Datas/enemy_level.xlsx
+++ b/_ConfigExcels/Datas/enemy_level.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -40,9 +40,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>damage</t>
   </si>
   <si>
@@ -61,13 +58,28 @@
     <t>组id</t>
   </si>
   <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>血量</t>
+    <t>基础伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_multi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_multi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害成长率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础血量成长率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -430,28 +442,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E5:E14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="19.875" style="2" customWidth="1"/>
     <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23" style="2" customWidth="1"/>
-    <col min="13" max="13" width="38.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="18.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23" style="2" customWidth="1"/>
+    <col min="12" max="12" width="38.125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,228 +472,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
       <c r="D5" s="2">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>55</v>
-      </c>
-      <c r="E13" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C14" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2">
-        <v>60</v>
-      </c>
-      <c r="E14" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2">
-        <v>50</v>
+      <c r="F5" s="2">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
